--- a/Documentos/Mapeamento das Fontes de Dados/SINERGYTECH/MAPEAMENTO_SINERGYTECH.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/SINERGYTECH/MAPEAMENTO_SINERGYTECH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\SINERGYTECH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7B8D0C-0603-4A31-A048-742D114B8FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B396D0-8C41-4230-864F-5809C6DC5C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="610" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="459">
   <si>
     <t>CPF</t>
   </si>
@@ -1332,9 +1332,6 @@
   </si>
   <si>
     <t>QUERY</t>
-  </si>
-  <si>
-    <t>TIM</t>
   </si>
   <si>
     <t>CPF DO CLIENTE</t>
@@ -1431,6 +1428,9 @@
   </si>
   <si>
     <t>ID_Agente</t>
+  </si>
+  <si>
+    <t>PLATAFORMA OU FONTE ORIGEM DO DADO</t>
   </si>
 </sst>
 </file>
@@ -6700,10 +6700,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6788,26 +6788,24 @@
       </c>
       <c r="E2" s="38"/>
       <c r="F2" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H2" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G2" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H2" s="38" t="s">
+      <c r="I2" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="J2" s="38" t="s">
         <v>445</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>446</v>
       </c>
       <c r="K2" s="38"/>
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
-        <v>427</v>
-      </c>
+      <c r="N2" s="38"/>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
@@ -6828,7 +6826,7 @@
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="38" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
@@ -6837,9 +6835,7 @@
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
-      <c r="N3" s="38" t="s">
-        <v>427</v>
-      </c>
+      <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
@@ -6860,7 +6856,7 @@
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="38" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
@@ -6869,9 +6865,7 @@
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
-      <c r="N4" s="38" t="s">
-        <v>427</v>
-      </c>
+      <c r="N4" s="38"/>
       <c r="O4" s="38"/>
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
@@ -6892,7 +6886,7 @@
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="38" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
@@ -6901,9 +6895,7 @@
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
-      <c r="N5" s="38" t="s">
-        <v>427</v>
-      </c>
+      <c r="N5" s="38"/>
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
@@ -6924,7 +6916,7 @@
       </c>
       <c r="E6" s="36"/>
       <c r="F6" s="38" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
@@ -6933,9 +6925,7 @@
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
-      <c r="N6" s="38" t="s">
-        <v>427</v>
-      </c>
+      <c r="N6" s="38"/>
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
@@ -6956,24 +6946,22 @@
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H7" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>445</v>
-      </c>
       <c r="I7" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
-      <c r="N7" s="38" t="s">
-        <v>427</v>
-      </c>
+      <c r="N7" s="38"/>
       <c r="O7" s="38"/>
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
@@ -6984,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>352</v>
@@ -6994,26 +6982,24 @@
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H8" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>445</v>
-      </c>
       <c r="I8" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
-      <c r="N8" s="38" t="s">
-        <v>427</v>
-      </c>
+      <c r="N8" s="38"/>
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
@@ -7021,10 +7007,10 @@
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>429</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>430</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>352</v>
@@ -7034,26 +7020,24 @@
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H9" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G9" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>445</v>
-      </c>
       <c r="I9" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
-      <c r="N9" s="38" t="s">
-        <v>427</v>
-      </c>
+      <c r="N9" s="38"/>
       <c r="O9" s="38"/>
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
@@ -7061,10 +7045,10 @@
     </row>
     <row r="10" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>431</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>432</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>352</v>
@@ -7074,26 +7058,24 @@
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H10" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G10" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>445</v>
-      </c>
       <c r="I10" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
-      <c r="N10" s="38" t="s">
-        <v>427</v>
-      </c>
+      <c r="N10" s="38"/>
       <c r="O10" s="38"/>
       <c r="P10" s="38"/>
       <c r="Q10" s="38"/>
@@ -7114,26 +7096,24 @@
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H11" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G11" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>445</v>
-      </c>
       <c r="I11" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
-      <c r="N11" s="38" t="s">
-        <v>427</v>
-      </c>
+      <c r="N11" s="38"/>
       <c r="O11" s="38"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -7141,39 +7121,37 @@
     </row>
     <row r="12" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>433</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>434</v>
-      </c>
       <c r="C12" s="38" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D12" s="38">
         <v>8</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H12" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>445</v>
-      </c>
       <c r="I12" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
-      <c r="N12" s="38" t="s">
-        <v>427</v>
-      </c>
+      <c r="N12" s="38"/>
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -7181,10 +7159,10 @@
     </row>
     <row r="13" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" s="38" t="s">
         <v>435</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>436</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>352</v>
@@ -7194,26 +7172,24 @@
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H13" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G13" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>445</v>
-      </c>
       <c r="I13" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
-      <c r="N13" s="38" t="s">
-        <v>427</v>
-      </c>
+      <c r="N13" s="38"/>
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
@@ -7221,39 +7197,37 @@
     </row>
     <row r="14" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="B14" s="38" t="s">
         <v>437</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>438</v>
-      </c>
       <c r="C14" s="38" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D14" s="38">
         <v>8</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H14" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G14" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>445</v>
-      </c>
       <c r="I14" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
-      <c r="N14" s="38" t="s">
-        <v>427</v>
-      </c>
+      <c r="N14" s="38"/>
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
@@ -7261,10 +7235,10 @@
     </row>
     <row r="15" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>439</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>440</v>
       </c>
       <c r="C15" s="38" t="s">
         <v>352</v>
@@ -7274,28 +7248,26 @@
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H15" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G15" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>445</v>
-      </c>
       <c r="I15" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K15" s="38"/>
       <c r="L15" s="38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M15" s="38"/>
-      <c r="N15" s="38" t="s">
-        <v>427</v>
-      </c>
+      <c r="N15" s="38"/>
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
@@ -7316,26 +7288,24 @@
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H16" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G16" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>445</v>
-      </c>
       <c r="I16" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
-      <c r="N16" s="38" t="s">
-        <v>427</v>
-      </c>
+      <c r="N16" s="38"/>
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
@@ -7356,26 +7326,24 @@
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H17" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G17" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>445</v>
-      </c>
       <c r="I17" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
-      <c r="N17" s="38" t="s">
-        <v>427</v>
-      </c>
+      <c r="N17" s="38"/>
       <c r="O17" s="38"/>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
@@ -7397,26 +7365,24 @@
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H18" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G18" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H18" s="38" t="s">
+      <c r="I18" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="J18" s="38" t="s">
         <v>445</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>446</v>
       </c>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
-      <c r="N18" s="38" t="s">
-        <v>427</v>
-      </c>
+      <c r="N18" s="38"/>
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
       <c r="Q18" s="38"/>
@@ -7437,26 +7403,24 @@
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H19" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G19" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H19" s="38" t="s">
+      <c r="I19" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="J19" s="38" t="s">
         <v>445</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>446</v>
       </c>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
-      <c r="N19" s="38" t="s">
-        <v>427</v>
-      </c>
+      <c r="N19" s="38"/>
       <c r="O19" s="38"/>
       <c r="P19" s="38"/>
       <c r="Q19" s="38"/>
@@ -7533,30 +7497,58 @@
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H22" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G22" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>445</v>
-      </c>
       <c r="I22" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
-      <c r="N22" s="38" t="s">
-        <v>427</v>
-      </c>
+      <c r="N22" s="38"/>
       <c r="O22" s="38"/>
       <c r="P22" s="38"/>
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
+    </row>
+    <row r="23" spans="1:19" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="D23" s="38">
+        <v>30</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentos/Mapeamento das Fontes de Dados/SINERGYTECH/MAPEAMENTO_SINERGYTECH.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/SINERGYTECH/MAPEAMENTO_SINERGYTECH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\SINERGYTECH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B396D0-8C41-4230-864F-5809C6DC5C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D752DF-C499-47DD-A281-762DB0B15F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="610" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -19,16 +19,12 @@
     <sheet name="ACIONA_CRM" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="TELEFONE" sheetId="16" state="hidden" r:id="rId5"/>
     <sheet name="EMAIL" sheetId="17" state="hidden" r:id="rId6"/>
-    <sheet name="MULTICANAIS" sheetId="9" r:id="rId7"/>
-    <sheet name="CADASTRO" sheetId="14" state="hidden" r:id="rId8"/>
-    <sheet name="CARTEIRA ATIVA" sheetId="1" state="hidden" r:id="rId9"/>
-    <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId10"/>
-    <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId11"/>
-    <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId12"/>
-    <sheet name="TEMPOS" sheetId="4" r:id="rId13"/>
-    <sheet name="PAUSAS" sheetId="13" r:id="rId14"/>
-    <sheet name="PESQUISA" sheetId="5" r:id="rId15"/>
-    <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId16"/>
+    <sheet name="CADASTRO" sheetId="14" state="hidden" r:id="rId7"/>
+    <sheet name="CARTEIRA ATIVA" sheetId="1" state="hidden" r:id="rId8"/>
+    <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId9"/>
+    <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId10"/>
+    <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId11"/>
+    <sheet name="DEADLINE" sheetId="19" state="hidden" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="418">
   <si>
     <t>CPF</t>
   </si>
@@ -704,9 +700,6 @@
     <t>NUMERO DO CPF, DEVEDOR_ID, IDENTIFICADOR_ID OU TITULO_ID QUE ESTIVER PRESENTE NA BASE DE DADOS DO DISCADOR</t>
   </si>
   <si>
-    <t>ID ÚNICO DA CHAMADA ESPEDIDO PELO DISCADOR</t>
-  </si>
-  <si>
     <t>MAILING REGISTRADO ATRELADO A CAMPANHA</t>
   </si>
   <si>
@@ -752,105 +745,18 @@
     <t>TELEFONE ATENDIDO</t>
   </si>
   <si>
-    <t>PRIMEIRO LOGIN DO OPERADOR NA FERRAMENTA DENTRO DO DIA</t>
-  </si>
-  <si>
-    <t>ÚLTIMO LOGOUT DO OPERADOR NA FERRAMENTA DENTRO DO DIA</t>
-  </si>
-  <si>
-    <t>VOLUME DE VEZES QUE O OPERADOR LOGOU NO DISCADOR</t>
-  </si>
-  <si>
-    <t>VOLUME DE VEZES QUE O OPERADOR DESLOGOU NO DISCADOR</t>
-  </si>
-  <si>
-    <t>VOLUME DE ATENDIMENTOS DO OPERADOR NO DIA</t>
-  </si>
-  <si>
-    <t>TEMPO LOGADO TOTAL DO OPERADOR</t>
-  </si>
-  <si>
     <t>TEMPO_DESLOGADO</t>
   </si>
   <si>
-    <t>TEMPO DESLOGADO TOTAL DO OPERADOR (TEMPO ENTRE OS DESLOGS E LOGS)</t>
-  </si>
-  <si>
-    <t>SOMA DE TOTAS AS PAUSAS DO OPERADOR NO DIA</t>
-  </si>
-  <si>
-    <t>TEMPO DISPONIVEL PARA ATENDIMENTO DO OPERADOR (FALADO + POS + IDLE)</t>
-  </si>
-  <si>
-    <t>TEMPO TOTAL QUE O OPERADOR PASSA FALANDO</t>
-  </si>
-  <si>
-    <t>TEMPO TOTAL QUE O OPERADOR REALIZA TABULAÇÕES EM SEU PÓS ATENDIMENTO</t>
-  </si>
-  <si>
-    <t>TEMPO TOTAL QUE O OPERADOR FICOU OCIOSO/IDLE NO DIA</t>
-  </si>
-  <si>
-    <t>TEMPO MÉDIO DE ATENDIMENTO (TEMPO_FALADO/ATENDIDAS)</t>
-  </si>
-  <si>
-    <t>TEMPO MÉDIO DE POS TABULAÇÃO (TEMPO_POS/ATENDIDAS)</t>
-  </si>
-  <si>
-    <t>TEMPO MÉDIO DE OCIOSIDADE (TEMPO_IDLE/ATENDIDAS)</t>
-  </si>
-  <si>
-    <t>TEMPO MÉDIO OPERACIONAL (TMA + TMP)</t>
-  </si>
-  <si>
-    <t>DATA DA REALIZAÇÃO DA PAUSA</t>
-  </si>
-  <si>
-    <t>NOTA DE SATISFAÇÃO DO CLIENTE</t>
-  </si>
-  <si>
-    <t>NOTA DA AVALIAÇÃO PELO CLIENTE (NPS)</t>
-  </si>
-  <si>
-    <t>DATA DA REALIZAÇÃO DA PESQUISA DE SATISFAÇÃO</t>
-  </si>
-  <si>
     <t>ID DO OPERADOR CADASTRADO NO CRM</t>
   </si>
   <si>
     <t>NOME DO OPERADOR CADASTRADO NO CRM</t>
   </si>
   <si>
-    <t>ID DO OPERADOR CADASTRADO NO DISCADOR</t>
-  </si>
-  <si>
-    <t>NOME DO OPERADOR CADASTRADO NO DISCADOR</t>
-  </si>
-  <si>
     <t>ID DO ACORDO CRIADO NO MOMENTO DE SEU CRAVAMENTO NO CRM</t>
   </si>
   <si>
-    <t>INICIO DA PAUSA</t>
-  </si>
-  <si>
-    <t>FIM DA PAUSA</t>
-  </si>
-  <si>
-    <t>NOME DA PAUSA</t>
-  </si>
-  <si>
-    <t>TEMPO TOTAL DA PAUSA (FIM_PAUSA - INICIO_PAUSA)</t>
-  </si>
-  <si>
-    <t>QUANTIDADE DE VEZES QUE A PAUSA FOI UTILIZADA</t>
-  </si>
-  <si>
-    <t>ID DA PAUSA CADASTRADO NO DISCADOR</t>
-  </si>
-  <si>
-    <t>DATA DO TEMPO CONTABILIZADO</t>
-  </si>
-  <si>
     <t>DATA DO CRAVAMENTO DO ACORDO NO CRM</t>
   </si>
   <si>
@@ -869,36 +775,9 @@
     <t>VALOR DO PAGAMENTO CRAVADO NO CRM</t>
   </si>
   <si>
-    <t>NOME DO OPERADOR QUE REALIZOU O CRAVAMENTO DA AÇÃO</t>
-  </si>
-  <si>
-    <t>ID DA AÇÃO CRIADO NO MOMENTO DE SEU DISPARO</t>
-  </si>
-  <si>
-    <t>1 = TEVE RESPOSTA , 0 = NÃO TEVE  RESPOSTA</t>
-  </si>
-  <si>
-    <t>SE A AÇÃO TEVE RETORNO</t>
-  </si>
-  <si>
-    <t>SE FOI SMS, EMAIL, URA, CHAT, WHATSAPP ETC</t>
-  </si>
-  <si>
-    <t>1 = SMS, 2 = EMAIL, 3 = URA, 4 = CHAT BOT, 5 = WHATSAPP</t>
-  </si>
-  <si>
-    <t>CUSTO DA AÇÃO</t>
-  </si>
-  <si>
-    <t>CANAL FORNECEDOR QUE REALIZOU A AÇÃO</t>
-  </si>
-  <si>
     <t>DATA DA REALIZAÇÃO DO PAGAMENTO</t>
   </si>
   <si>
-    <t>DATA DO ENVIO DA AÇÃO</t>
-  </si>
-  <si>
     <t>NOME DO CRM CADASTRADO</t>
   </si>
   <si>
@@ -1202,24 +1081,6 @@
     <t>DATA_ACIONA,DATE_EVENT_CRM</t>
   </si>
   <si>
-    <t>OLOS,ASPECT</t>
-  </si>
-  <si>
-    <t>DBOLOS, DBASPECT</t>
-  </si>
-  <si>
-    <t>TEMPOS, TIME_ALL</t>
-  </si>
-  <si>
-    <t>DATE,DATETIME</t>
-  </si>
-  <si>
-    <t>PAUSAS, PAUSE</t>
-  </si>
-  <si>
-    <t>NPS, PESQUISA_CLI</t>
-  </si>
-  <si>
     <t>TBACORDO, TB_CONTRACTS</t>
   </si>
   <si>
@@ -1340,9 +1201,6 @@
     <t>ID_AGENTE</t>
   </si>
   <si>
-    <t>ID UNICO DO OPERADOR OU LOGIN</t>
-  </si>
-  <si>
     <t>AGENTE</t>
   </si>
   <si>
@@ -1358,9 +1216,6 @@
     <t>NOME_CAMPANHA</t>
   </si>
   <si>
-    <t>NOME CAMPANHA DISCADA</t>
-  </si>
-  <si>
     <t>ID_TABULACAO</t>
   </si>
   <si>
@@ -1371,9 +1226,6 @@
   </si>
   <si>
     <t>NOME DA TABULACAO</t>
-  </si>
-  <si>
-    <t>INT</t>
   </si>
   <si>
     <t>acionamentos, acionamentos_kedu, acionamentos_alldesk</t>
@@ -1431,6 +1283,27 @@
   </si>
   <si>
     <t>PLATAFORMA OU FONTE ORIGEM DO DADO</t>
+  </si>
+  <si>
+    <t>NUMERO DEVEDOR_ID, IDENTIFICADOR_ID OU TITULO_ID, COSTCODE QUE POSSIBILITE LOCALIZAR O ID_KEY DA TABELA CARTEIRA</t>
+  </si>
+  <si>
+    <t>ID DO OPERADOR OU LOGIN</t>
+  </si>
+  <si>
+    <t>ID DA CHAMADA</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>NOME DA CAMPANHA DISCADA</t>
+  </si>
+  <si>
+    <t>DATETIME2</t>
+  </si>
+  <si>
+    <t>NVARCHAR</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1724,21 +1597,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFBFBFBF"/>
       </left>
       <right style="medium">
@@ -1757,7 +1615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1841,9 +1699,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1864,9 +1719,6 @@
     <xf numFmtId="0" fontId="9" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1876,13 +1728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2222,10 +2068,10 @@
         <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2299,709 +2145,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B44F7F0-7B7D-413E-AA95-E491BFA5A425}">
-  <dimension ref="A1:Y29"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>54</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H2" s="5">
-        <v>78</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="16">
-        <v>44566.370775462965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-    </row>
-    <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E6" s="1">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E7" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E11" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E12" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E13" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29" s="1">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I3:Q3"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4503D2B1-6995-4181-A579-EBD303531330}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -3126,17 +2269,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="I4" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3146,10 +2289,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -3163,32 +2306,32 @@
       <c r="H5" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>372</v>
+      <c r="I5" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,36 +2339,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,33 +2379,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,7 +2416,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -3284,10 +2427,10 @@
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -3301,7 +2444,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -3312,10 +2455,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -3329,7 +2472,7 @@
         <v>216</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -3340,10 +2483,10 @@
         <v>139</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
@@ -3354,10 +2497,10 @@
         <v>140</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E14" s="5">
         <v>100</v>
@@ -3368,10 +2511,10 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E15" s="5">
         <v>20</v>
@@ -3382,10 +2525,10 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E16" s="5">
         <v>50</v>
@@ -3396,7 +2539,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>180</v>
@@ -3413,7 +2556,7 @@
         <v>213</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="E18" s="5">
         <v>20</v>
@@ -3427,7 +2570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5638346-13E4-4391-8323-38C7FA4704D0}">
   <dimension ref="A1:R20"/>
   <sheetViews>
@@ -3566,17 +2709,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
+      <c r="J4" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3586,10 +2729,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -3603,32 +2746,32 @@
       <c r="H5" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>372</v>
+      <c r="I5" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -3636,36 +2779,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -3676,33 +2819,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -3713,7 +2856,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -3724,10 +2867,10 @@
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -3741,7 +2884,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -3752,10 +2895,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -3766,10 +2909,10 @@
         <v>108</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -3783,7 +2926,7 @@
         <v>216</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
@@ -3794,10 +2937,10 @@
         <v>139</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -3808,10 +2951,10 @@
         <v>140</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E15" s="5">
         <v>100</v>
@@ -3822,16 +2965,16 @@
         <v>109</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E16" s="5">
         <v>20</v>
       </c>
-      <c r="F16" s="29" t="s">
-        <v>270</v>
+      <c r="F16" s="28" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3839,10 +2982,10 @@
         <v>52</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E17" s="5">
         <v>20</v>
@@ -3853,10 +2996,10 @@
         <v>53</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E18" s="5">
         <v>50</v>
@@ -3867,7 +3010,7 @@
         <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>180</v>
@@ -3884,7 +3027,7 @@
         <v>213</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="E20" s="5">
         <v>20</v>
@@ -3898,907 +3041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3224E281-B9C3-43DE-9C24-CA7016DDAC13}">
-  <dimension ref="A1:O25"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D2" s="5">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="5">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D12" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D15" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D16" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D18" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D21" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D22" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D23" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D24" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" s="5">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76B7F98-F046-4D38-B531-0938E5524784}">
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" s="5">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="5">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="5">
-        <v>50</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D10" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D11" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D12" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D13" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D14" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D15" s="5">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7920C411-EA90-40BF-87D0-8A7E5345C20C}">
-  <dimension ref="A1:O11"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" s="5">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="5">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="5">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE3E272-40FD-4D6E-8CC1-A618C9F1A948}">
   <dimension ref="G2:K15"/>
   <sheetViews>
@@ -4815,199 +3058,199 @@
   </cols>
   <sheetData>
     <row r="2" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>423</v>
+      <c r="H2" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G3" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="H3" s="32">
+        <v>363</v>
+      </c>
+      <c r="H3" s="31">
         <v>45467</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="31">
         <v>45471</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G4" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="H4" s="32">
+        <v>364</v>
+      </c>
+      <c r="H4" s="31">
         <v>45474</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="31">
         <v>45476</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G5" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="H5" s="32">
+        <v>365</v>
+      </c>
+      <c r="H5" s="31">
         <v>45477</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="31">
         <v>45481</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G6" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H6" s="32">
+        <v>366</v>
+      </c>
+      <c r="H6" s="31">
         <v>45482</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="31">
         <v>45484</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G7" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H7" s="32">
+        <v>367</v>
+      </c>
+      <c r="H7" s="31">
         <v>45488</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="31">
         <v>45490</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G8" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="H8" s="32">
+        <v>368</v>
+      </c>
+      <c r="H8" s="31">
         <v>45491</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="31">
         <v>45495</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G9" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="H9" s="32">
+        <v>369</v>
+      </c>
+      <c r="H9" s="31">
         <v>45496</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="31">
         <v>45502</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G10" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="H10" s="32">
+        <v>370</v>
+      </c>
+      <c r="H10" s="31">
         <v>45503</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="31">
         <v>45504</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G11" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="H11" s="32">
+        <v>371</v>
+      </c>
+      <c r="H11" s="31">
         <v>45505</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="31">
         <v>45509</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G12" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="H12" s="32">
+        <v>372</v>
+      </c>
+      <c r="H12" s="31">
         <v>45510</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="31">
         <v>45512</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G13" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="H13" s="32">
+        <v>373</v>
+      </c>
+      <c r="H13" s="31">
         <v>45513</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="31">
         <v>45517</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G14" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="H14" s="32">
+        <v>374</v>
+      </c>
+      <c r="H14" s="31">
         <v>45518</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="31">
         <v>45520</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G15" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="H15" s="32">
+        <v>375</v>
+      </c>
+      <c r="H15" s="31">
         <v>45523</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="31">
         <v>45525</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -5078,51 +3321,51 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -5860,7 +4103,7 @@
         <v>178</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="AD11" s="1" t="s">
         <v>171</v>
@@ -5940,7 +4183,7 @@
         <v>178</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>171</v>
@@ -6020,7 +4263,7 @@
         <v>171</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>171</v>
@@ -6094,7 +4337,7 @@
         <v>179</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="AD14" s="1" t="s">
         <v>171</v>
@@ -6168,7 +4411,7 @@
         <v>178</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="AD15" s="1" t="s">
         <v>171</v>
@@ -6230,7 +4473,7 @@
         <v>181</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>171</v>
@@ -6262,7 +4505,7 @@
         <v>183</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>183</v>
@@ -6286,7 +4529,7 @@
         <v>178</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>171</v>
@@ -6336,7 +4579,7 @@
         <v>172</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="AD18" s="1" t="s">
         <v>171</v>
@@ -6374,7 +4617,7 @@
         <v>183</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="AD19" s="1" t="s">
         <v>171</v>
@@ -6406,7 +4649,7 @@
         <v>183</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AD20" s="1" t="s">
         <v>171</v>
@@ -6432,7 +4675,7 @@
         <v>183</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="AD21" s="1" t="s">
         <v>171</v>
@@ -6458,7 +4701,7 @@
         <v>183</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="AD22" s="1" t="s">
         <v>171</v>
@@ -6484,7 +4727,7 @@
         <v>183</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="AD23" s="1" t="s">
         <v>171</v>
@@ -6510,7 +4753,7 @@
         <v>183</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="AD24" s="1" t="s">
         <v>171</v>
@@ -6536,7 +4779,7 @@
         <v>183</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="AD25" s="1" t="s">
         <v>171</v>
@@ -6562,7 +4805,7 @@
         <v>183</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="AD26" s="1" t="s">
         <v>171</v>
@@ -6576,7 +4819,7 @@
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>179</v>
@@ -6700,10 +4943,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6726,829 +4969,709 @@
     <col min="16" max="16384" width="70.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:19" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>367</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>370</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>371</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>372</v>
-      </c>
-      <c r="O1" s="38" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="F1" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="D2" s="38">
+      <c r="C2" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="36">
         <v>10</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-    </row>
-    <row r="3" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>188</v>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+    </row>
+    <row r="3" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>411</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>352</v>
+        <v>417</v>
       </c>
       <c r="D3" s="36">
+        <v>20</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+    </row>
+    <row r="4" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="D4" s="36">
+        <v>20</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+    </row>
+    <row r="5" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="D5" s="36">
+        <v>30</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+    </row>
+    <row r="6" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="D6" s="36">
+        <v>100</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+    </row>
+    <row r="7" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="D7" s="36">
+        <v>19</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+    </row>
+    <row r="8" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="D8" s="36">
+        <v>19</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+    </row>
+    <row r="9" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="D9" s="36">
+        <v>200</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+    </row>
+    <row r="10" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="D10" s="36">
+        <v>19</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+    </row>
+    <row r="11" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="D11" s="36">
+        <v>200</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+    </row>
+    <row r="12" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="D12" s="36">
+        <v>250</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+    </row>
+    <row r="13" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="D13" s="36">
         <v>50</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-    </row>
-    <row r="4" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="D4" s="36">
-        <v>50</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-    </row>
-    <row r="5" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="D5" s="36">
-        <v>8</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-    </row>
-    <row r="6" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="D6" s="36">
-        <v>8</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-    </row>
-    <row r="7" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D7" s="38">
+      <c r="E13" s="36"/>
+      <c r="F13" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+    </row>
+    <row r="14" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" s="36">
+        <v>19</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+    </row>
+    <row r="15" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" s="36">
+        <v>19</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+    </row>
+    <row r="16" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="D16" s="36">
+        <v>19</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+    </row>
+    <row r="17" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="D17" s="36">
+        <v>19</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+    </row>
+    <row r="18" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="D18" s="36">
         <v>20</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-    </row>
-    <row r="8" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D8" s="38">
-        <v>20</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-    </row>
-    <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D9" s="38">
-        <v>15</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>457</v>
-      </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-    </row>
-    <row r="10" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>431</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D10" s="38">
-        <v>15</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-    </row>
-    <row r="11" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D11" s="38">
-        <v>20</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-    </row>
-    <row r="12" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>440</v>
-      </c>
-      <c r="D12" s="38">
-        <v>8</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-    </row>
-    <row r="13" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
-        <v>434</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D13" s="38">
-        <v>200</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-    </row>
-    <row r="14" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38" t="s">
-        <v>436</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>440</v>
-      </c>
-      <c r="D14" s="38">
-        <v>8</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-    </row>
-    <row r="15" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D15" s="38">
-        <v>200</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38" t="s">
-        <v>452</v>
-      </c>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-    </row>
-    <row r="16" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D16" s="38">
-        <v>100</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-    </row>
-    <row r="17" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D17" s="38">
-        <v>20</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-    </row>
-    <row r="18" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="D18" s="38">
-        <v>8</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-    </row>
-    <row r="19" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="D19" s="38">
-        <v>8</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-    </row>
-    <row r="20" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="D20" s="38">
-        <v>8</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-    </row>
-    <row r="21" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="D21" s="38">
-        <v>8</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-    </row>
-    <row r="22" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D22" s="38">
-        <v>11</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-    </row>
-    <row r="23" spans="1:19" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="38" t="s">
+      <c r="E18" s="36"/>
+      <c r="F18" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+    </row>
+    <row r="19" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>458</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="D23" s="38">
+      <c r="B19" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="D19" s="36">
         <v>30</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7686,17 +5809,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="I4" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -7706,10 +5829,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -7723,32 +5846,32 @@
       <c r="H5" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>372</v>
+      <c r="I5" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7756,36 +5879,36 @@
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,33 +5919,33 @@
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E7" s="5">
         <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7833,7 +5956,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E8" s="5">
         <v>50</v>
@@ -7844,10 +5967,10 @@
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -7861,7 +5984,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -7875,7 +5998,7 @@
         <v>216</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
@@ -7886,10 +6009,10 @@
         <v>139</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
@@ -7900,10 +6023,10 @@
         <v>140</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E13" s="5">
         <v>100</v>
@@ -7914,10 +6037,10 @@
         <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -7928,10 +6051,10 @@
         <v>53</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E15" s="5">
         <v>50</v>
@@ -7942,10 +6065,10 @@
         <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="E16" s="5">
         <v>8</v>
@@ -7956,10 +6079,10 @@
         <v>48</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="E17" s="5">
         <v>8</v>
@@ -7970,10 +6093,10 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="E18" s="5">
         <v>8</v>
@@ -7984,10 +6107,10 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="E19" s="5">
         <v>8</v>
@@ -7998,10 +6121,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E20" s="5">
         <v>11</v>
@@ -8015,7 +6138,7 @@
         <v>213</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="E21" s="5">
         <v>20</v>
@@ -8130,17 +6253,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
+      <c r="I3" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8150,10 +6273,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -8167,32 +6290,32 @@
       <c r="H4" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>372</v>
+      <c r="I4" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8200,34 +6323,34 @@
         <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,34 +6361,34 @@
         <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8273,10 +6396,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
@@ -8290,7 +6413,7 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -8304,7 +6427,7 @@
         <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -8315,10 +6438,10 @@
         <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -8332,7 +6455,7 @@
         <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -8343,10 +6466,10 @@
         <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -8357,10 +6480,10 @@
         <v>120</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
@@ -8371,10 +6494,10 @@
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -8388,7 +6511,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
@@ -8503,17 +6626,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
+      <c r="I3" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8523,10 +6646,10 @@
         <v>190</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>187</v>
@@ -8540,32 +6663,32 @@
       <c r="H4" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>372</v>
+      <c r="I4" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8573,34 +6696,34 @@
         <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8611,34 +6734,34 @@
         <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8646,10 +6769,10 @@
         <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E7" s="1">
         <v>11</v>
@@ -8663,7 +6786,7 @@
         <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -8677,7 +6800,7 @@
         <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -8688,10 +6811,10 @@
         <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -8705,7 +6828,7 @@
         <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
@@ -8716,10 +6839,10 @@
         <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -8730,10 +6853,10 @@
         <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E13" s="1">
         <v>20</v>
@@ -8744,10 +6867,10 @@
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -8761,7 +6884,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="E15" s="1">
         <v>20</v>
@@ -8785,299 +6908,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B8EF36-DED1-4AE4-8E82-79A80977A3B5}">
-  <dimension ref="A1:O16"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="1">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D8" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="49.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="49.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" s="1">
-        <v>20</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="1">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D15" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D16" s="1">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B97A6D-8857-4D87-AF49-4B4418AC3D8F}">
   <dimension ref="A1:X29"/>
   <sheetViews>
@@ -9137,52 +6967,52 @@
         <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>146</v>
@@ -9273,17 +7103,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="I4" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -9293,10 +7123,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -9310,32 +7140,32 @@
       <c r="H5" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>372</v>
+      <c r="I5" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -9343,34 +7173,34 @@
         <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E6" s="1">
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -9381,31 +7211,31 @@
         <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E7" s="1">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
@@ -9413,10 +7243,10 @@
         <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -9430,7 +7260,7 @@
         <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -9444,7 +7274,7 @@
         <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
@@ -9455,10 +7285,10 @@
         <v>89</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -9469,10 +7299,10 @@
         <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -9480,13 +7310,13 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -9494,13 +7324,13 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
@@ -9508,13 +7338,13 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E15" s="1">
         <v>50</v>
@@ -9522,13 +7352,13 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E16" s="1">
         <v>50</v>
@@ -9536,13 +7366,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E17" s="1">
         <v>50</v>
@@ -9550,13 +7380,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E18" s="1">
         <v>50</v>
@@ -9564,13 +7394,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E19" s="1">
         <v>50</v>
@@ -9578,13 +7408,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E20" s="1">
         <v>50</v>
@@ -9592,13 +7422,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E21" s="1">
         <v>50</v>
@@ -9606,13 +7436,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
@@ -9620,13 +7450,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E23" s="1">
         <v>50</v>
@@ -9634,13 +7464,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E24" s="1">
         <v>50</v>
@@ -9648,13 +7478,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E25" s="1">
         <v>50</v>
@@ -9662,13 +7492,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E26" s="1">
         <v>50</v>
@@ -9676,13 +7506,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
@@ -9690,13 +7520,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
@@ -9710,7 +7540,7 @@
         <v>213</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="E29" s="1">
         <v>20</v>
@@ -9724,7 +7554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
   <dimension ref="A1:AL42"/>
   <sheetViews>
@@ -9999,17 +7829,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="I4" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -10019,10 +7849,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>187</v>
@@ -10036,32 +7866,32 @@
       <c r="H5" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>372</v>
+      <c r="I5" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -10072,7 +7902,7 @@
         <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
@@ -10081,25 +7911,25 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="1" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
@@ -10110,7 +7940,7 @@
         <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -10119,25 +7949,25 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="1" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10145,10 +7975,10 @@
         <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -10165,7 +7995,7 @@
         <v>194</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -10179,7 +8009,7 @@
         <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
@@ -10193,7 +8023,7 @@
         <v>196</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -10207,7 +8037,7 @@
         <v>197</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -10221,7 +8051,7 @@
         <v>198</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -10235,7 +8065,7 @@
         <v>199</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -10246,10 +8076,10 @@
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="E15" s="1">
         <v>4</v>
@@ -10263,7 +8093,7 @@
         <v>200</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E16" s="1">
         <v>20</v>
@@ -10277,7 +8107,7 @@
         <v>201</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E17" s="1">
         <v>20</v>
@@ -10291,7 +8121,7 @@
         <v>202</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E18" s="1">
         <v>20</v>
@@ -10305,7 +8135,7 @@
         <v>203</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E19" s="1">
         <v>20</v>
@@ -10319,7 +8149,7 @@
         <v>205</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
@@ -10333,7 +8163,7 @@
         <v>204</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="E21" s="1">
         <v>10</v>
@@ -10347,7 +8177,7 @@
         <v>206</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
@@ -10361,7 +8191,7 @@
         <v>207</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="E23" s="1">
         <v>10</v>
@@ -10375,7 +8205,7 @@
         <v>209</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
@@ -10389,7 +8219,7 @@
         <v>210</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
@@ -10431,7 +8261,7 @@
         <v>212</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="E28" s="1">
         <v>20</v>
@@ -10439,10 +8269,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -10450,7 +8280,7 @@
         <v>123</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -10604,4 +8434,707 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B44F7F0-7B7D-413E-AA95-E491BFA5A425}">
+  <dimension ref="A1:Y29"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="5">
+        <v>78</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="16">
+        <v>44566.370775462965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I3" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+    </row>
+    <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I3:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Documentos/Mapeamento das Fontes de Dados/SINERGYTECH/MAPEAMENTO_SINERGYTECH.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/SINERGYTECH/MAPEAMENTO_SINERGYTECH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\SINERGYTECH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D752DF-C499-47DD-A281-762DB0B15F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF51195-84B1-4B32-A200-D2134EB813CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="610" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>

--- a/Documentos/Mapeamento das Fontes de Dados/SINERGYTECH/MAPEAMENTO_SINERGYTECH.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/SINERGYTECH/MAPEAMENTO_SINERGYTECH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\SINERGYTECH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF51195-84B1-4B32-A200-D2134EB813CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F315C86-CB1C-4997-AA3C-2ACB15BEBE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="610" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="422">
   <si>
     <t>CPF</t>
   </si>
@@ -1304,6 +1304,18 @@
   </si>
   <si>
     <t>NVARCHAR</t>
+  </si>
+  <si>
+    <t>DATA_INSERT</t>
+  </si>
+  <si>
+    <t>MOMENTO QUE O DADO FOI INSERIDO NA TABELA</t>
+  </si>
+  <si>
+    <t>DATETIMENOW()</t>
+  </si>
+  <si>
+    <t>PK</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1610,12 +1622,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1729,6 +1778,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2269,17 +2327,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -2709,17 +2767,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -4943,10 +5001,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5217,7 +5275,9 @@
       <c r="D7" s="36">
         <v>19</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="36" t="s">
+        <v>421</v>
+      </c>
       <c r="F7" s="36" t="s">
         <v>395</v>
       </c>
@@ -5657,13 +5717,13 @@
         <v>30</v>
       </c>
       <c r="E19" s="36"/>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="41"/>
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
       <c r="M19" s="36"/>
@@ -5673,7 +5733,33 @@
       <c r="Q19" s="36"/>
       <c r="R19" s="36"/>
     </row>
+    <row r="20" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="D20" s="36">
+        <v>19</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -5809,17 +5895,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -6253,17 +6339,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -6626,17 +6712,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -7103,17 +7189,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -7829,17 +7915,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -8629,17 +8715,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/SINERGYTECH/MAPEAMENTO_SINERGYTECH.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/SINERGYTECH/MAPEAMENTO_SINERGYTECH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\SINERGYTECH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F315C86-CB1C-4997-AA3C-2ACB15BEBE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97762A51-FA0D-4AC0-B356-1EED21AB3C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="610" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="425">
   <si>
     <t>CPF</t>
   </si>
@@ -1316,6 +1316,15 @@
   </si>
   <si>
     <t>PK</t>
+  </si>
+  <si>
+    <t>EVENTO_ID</t>
+  </si>
+  <si>
+    <t>ID DO ACIONAMENTO NO DW</t>
+  </si>
+  <si>
+    <t>IDENTITY</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1335,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1402,16 +1411,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="17">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1492,24 +1493,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1F4E78"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF44546A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1543,36 +1532,6 @@
         <color rgb="FFBFBFBF"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FFBFBFBF"/>
       </bottom>
       <diagonal/>
@@ -1664,7 +1623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1762,31 +1721,25 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2327,17 +2280,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -2767,17 +2720,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -5001,10 +4954,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5012,8 +4965,8 @@
     <col min="1" max="1" width="18.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.5546875" style="1" customWidth="1"/>
@@ -5031,734 +4984,762 @@
       <c r="A1" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="36" t="s">
         <v>325</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="34" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:19" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" s="34">
+        <v>19</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="3" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D3" s="34">
         <v>10</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G3" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H3" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I3" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J3" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-    </row>
-    <row r="3" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+    </row>
+    <row r="4" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C4" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D4" s="34">
         <v>20</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G4" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H4" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I4" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-    </row>
-    <row r="4" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+    </row>
+    <row r="5" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C5" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D5" s="34">
         <v>20</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G5" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H5" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I5" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J5" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-    </row>
-    <row r="5" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+    </row>
+    <row r="6" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C6" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D6" s="34">
         <v>30</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G6" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H6" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I6" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J6" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-    </row>
-    <row r="6" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36" t="s">
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+    </row>
+    <row r="7" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>385</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C7" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D7" s="34">
         <v>100</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G7" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H7" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I7" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J7" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-    </row>
-    <row r="7" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+    </row>
+    <row r="8" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C8" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D8" s="34">
         <v>19</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G8" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H8" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I8" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J8" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-    </row>
-    <row r="8" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36" t="s">
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+    </row>
+    <row r="9" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C9" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D9" s="34">
         <v>19</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G9" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H9" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I9" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J9" s="34" t="s">
         <v>407</v>
       </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-    </row>
-    <row r="9" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+    </row>
+    <row r="10" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C10" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D10" s="34">
         <v>200</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G10" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H10" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I10" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J10" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-    </row>
-    <row r="10" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="36" t="s">
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+    </row>
+    <row r="11" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B11" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C11" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D11" s="34">
         <v>19</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G11" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H11" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I11" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J11" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-    </row>
-    <row r="11" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+    </row>
+    <row r="12" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C12" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D12" s="34">
         <v>200</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G12" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H12" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I12" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J12" s="34" t="s">
         <v>405</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36" t="s">
+      <c r="K12" s="34"/>
+      <c r="L12" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-    </row>
-    <row r="12" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+    </row>
+    <row r="13" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B13" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C13" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D13" s="34">
         <v>250</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36" t="s">
+      <c r="E13" s="34"/>
+      <c r="F13" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G13" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H13" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I13" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J13" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-    </row>
-    <row r="13" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36" t="s">
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+    </row>
+    <row r="14" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C14" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D14" s="34">
         <v>50</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G14" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H14" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I14" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J14" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-    </row>
-    <row r="14" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="36" t="s">
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+    </row>
+    <row r="15" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B15" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C15" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D15" s="34">
         <v>19</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36" t="s">
+      <c r="E15" s="34"/>
+      <c r="F15" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G15" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H15" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I15" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J15" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-    </row>
-    <row r="15" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+    </row>
+    <row r="16" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B16" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C16" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D16" s="34">
         <v>19</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G16" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H16" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I16" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J16" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-    </row>
-    <row r="16" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="36" t="s">
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+    </row>
+    <row r="17" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C17" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D17" s="34">
         <v>19</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-    </row>
-    <row r="17" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="36" t="s">
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+    </row>
+    <row r="18" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C18" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D18" s="34">
         <v>19</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-    </row>
-    <row r="18" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="36" t="s">
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+    </row>
+    <row r="19" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C19" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D19" s="34">
         <v>20</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36" t="s">
+      <c r="E19" s="34"/>
+      <c r="F19" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G19" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H19" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I19" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J19" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-    </row>
-    <row r="19" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+    </row>
+    <row r="20" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B20" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C20" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D20" s="34">
         <v>30</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="39" t="s">
+      <c r="E20" s="34"/>
+      <c r="F20" s="37" t="s">
         <v>395</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-    </row>
-    <row r="20" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+    </row>
+    <row r="21" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C21" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D21" s="34">
         <v>19</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="39" t="s">
+      <c r="E21" s="34"/>
+      <c r="F21" s="37" t="s">
         <v>420</v>
       </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F19:J19"/>
+  <mergeCells count="3">
     <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5895,17 +5876,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -6339,17 +6320,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -6712,17 +6693,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -7189,17 +7170,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -7915,17 +7896,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -8715,17 +8696,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/SINERGYTECH/MAPEAMENTO_SINERGYTECH.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/SINERGYTECH/MAPEAMENTO_SINERGYTECH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\SINERGYTECH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97762A51-FA0D-4AC0-B356-1EED21AB3C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3561C768-3542-47B0-813E-FAE23A74CE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="610" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="610" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="433">
   <si>
     <t>CPF</t>
   </si>
@@ -1190,9 +1190,6 @@
   </si>
   <si>
     <t>EM ANDAMENTO</t>
-  </si>
-  <si>
-    <t>QUERY</t>
   </si>
   <si>
     <t>CPF DO CLIENTE</t>
@@ -1325,6 +1322,105 @@
   </si>
   <si>
     <t>IDENTITY</t>
+  </si>
+  <si>
+    <t>HOST (IP) DO BANCO ORIGEM</t>
+  </si>
+  <si>
+    <t>BANCO</t>
+  </si>
+  <si>
+    <t>NOME DO BANCO DE DADOS ORIGEM</t>
+  </si>
+  <si>
+    <t>QUERY MF</t>
+  </si>
+  <si>
+    <t>QUERY ALLDESK</t>
+  </si>
+  <si>
+    <t>QUERY KEDU</t>
+  </si>
+  <si>
+    <t>SELECT TOP 10 
+    CAST(Data_Hora AS DATE) AS DATA,
+    '' as ID_KEY,
+    CPF_CNPJ AS CPF,
+    ID_Agente AS ID_AGENTE,
+    Agente AS AGENTE,
+    Identificador_Chamada AS CALL_ID,
+    Id_Campanha AS ID_CAMPANHA,
+    Campanha AS NOME_CAMPANHA,
+    Id_Ultima_Interacao AS ID_TABULACAO,
+    CASE
+        WHEN acionamentos.Ultima_Interacao = '' THEN acionamentos.Resultado
+        ELSE acionamentos.Ultima_Interacao
+    END AS TABULACAO,
+    Lote AS MAILING,
+    Rota AS ROTA,
+    Data_Hora AS INICIO_CHAMADA,
+    Data_Hora AS FIM_CHAMADA,
+    '' AS INICIO_POS,
+    '' AS FIM_POS,
+    DDD_Telefone AS TELEFONE,
+    '187.32.251.237' AS INSTANCIA,
+    'Meireles_freitas' AS BANCO,
+    'SINERGYTECH' AS ORIGEM
+FROM acionamentos WITH (NOLOCK)</t>
+  </si>
+  <si>
+    <t>SELECT 
+    CAST(Data_Hora AS DATE) AS DATA,
+    '' as ID_KEY,
+    CPF_CNPJ AS CPF,
+    ID_Agente AS ID_AGENTE,
+    Agente AS AGENTE,
+    Identificador_Chamada AS CALL_ID,
+    Id_Campanha AS ID_CAMPANHA,
+    Campanha AS NOME_CAMPANHA,
+    Id_Ultima_Interacao AS ID_TABULACAO,
+    CASE
+        WHEN Acionamentos_alldesk.Ultima_Interacao = '' THEN Acionamentos_alldesk.Resultado
+        ELSE Acionamentos_alldesk.Ultima_Interacao
+    END AS TABULACAO,
+    Lote AS MAILING,
+    Rota AS ROTA,
+    Data_Hora AS INICIO_CHAMADA,
+    Data_Hora AS FIM_CHAMADA,
+    '' AS INICIO_POS,
+    '' AS FIM_POS,
+    DDD_Telefone AS TELEFONE,
+    '187.32.251.237' AS INSTANCIA,
+    'Meireles_freitas' AS BANCO,
+    'SINERGYTECH' AS ORIGEM
+FROM Acionamentos_alldesk WITH (NOLOCK)</t>
+  </si>
+  <si>
+    <t>SELECT 
+    CAST(Data_Hora AS DATE) AS DATA,
+    '' as ID_KEY,
+    CPF_CNPJ AS CPF,
+    ID_Agente AS ID_AGENTE,
+    Agente AS AGENTE,
+    Identificador_Chamada AS CALL_ID,
+    Id_Campanha AS ID_CAMPANHA,
+    Campanha AS NOME_CAMPANHA,
+    Id_Ultima_Interacao AS ID_TABULACAO,
+    CASE
+        WHEN Acionamentos_kedu.Ultima_Interacao = '' THEN Acionamentos_kedu.Resultado
+        ELSE Acionamentos_kedu.Ultima_Interacao
+    END AS TABULACAO,
+    Lote AS MAILING,
+    Rota AS ROTA,
+    Data_Hora AS INICIO_CHAMADA,
+    Data_Hora AS FIM_CHAMADA,
+    '' AS INICIO_POS,
+    '' AS FIM_POS,
+    DDD_Telefone AS TELEFONE,
+    '187.32.251.237' AS INSTANCIA,
+    'Meireles_freitas' AS BANCO,
+    'SINERGYTECH' AS ORIGEM
+FROM Acionamentos_kedu WITH (NOLOCK)</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1431,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1391,14 +1487,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1498,7 +1586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1618,12 +1706,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1718,10 +1843,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1730,7 +1852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1744,6 +1866,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2280,17 +2411,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -2720,17 +2851,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -4954,10 +5085,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4974,13 +5105,13 @@
     <col min="10" max="10" width="23" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="50.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="70.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>186</v>
       </c>
@@ -4996,7 +5127,7 @@
       <c r="E1" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>325</v>
       </c>
       <c r="G1" s="32" t="s">
@@ -5018,728 +5149,759 @@
         <v>331</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>332</v>
+        <v>427</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="O1" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2" s="33">
+        <v>19</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" s="33">
+        <v>10</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="33"/>
+    </row>
+    <row r="4" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D4" s="33">
+        <v>20</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="33"/>
+    </row>
+    <row r="5" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="C2" s="34" t="s">
+      <c r="C5" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D5" s="33">
+        <v>20</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D6" s="33">
+        <v>30</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="7" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" s="33">
+        <v>100</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="33"/>
+    </row>
+    <row r="8" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="D8" s="33">
+        <v>19</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="33"/>
+    </row>
+    <row r="9" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="D9" s="33">
+        <v>19</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="33"/>
+    </row>
+    <row r="10" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="D2" s="34">
+      <c r="C10" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D10" s="33">
+        <v>200</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="33"/>
+    </row>
+    <row r="11" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="D11" s="33">
         <v>19</v>
       </c>
-      <c r="E2" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="F2" s="37" t="s">
+      <c r="E11" s="33"/>
+      <c r="F11" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="33"/>
+    </row>
+    <row r="12" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D12" s="33">
+        <v>200</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="33"/>
+    </row>
+    <row r="13" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" s="33">
+        <v>250</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" s="33">
+        <v>50</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+    </row>
+    <row r="15" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="D15" s="33">
+        <v>19</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="33"/>
+    </row>
+    <row r="16" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="D16" s="33">
+        <v>19</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="33"/>
+    </row>
+    <row r="17" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="D17" s="33">
+        <v>19</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="33"/>
+    </row>
+    <row r="18" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="D18" s="33">
+        <v>19</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="33"/>
+    </row>
+    <row r="19" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D19" s="33">
+        <v>20</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="33"/>
+    </row>
+    <row r="20" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-    </row>
-    <row r="3" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="D3" s="34">
-        <v>10</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34" t="s">
+      <c r="C20" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D20" s="33">
+        <v>20</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="33"/>
+    </row>
+    <row r="21" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D21" s="33">
+        <v>20</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="33"/>
+    </row>
+    <row r="22" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D22" s="33">
+        <v>30</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>397</v>
-      </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-    </row>
-    <row r="4" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>411</v>
-      </c>
-      <c r="C4" s="34" t="s">
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="33"/>
+    </row>
+    <row r="23" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D4" s="34">
-        <v>20</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-    </row>
-    <row r="5" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="D5" s="34">
-        <v>20</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-    </row>
-    <row r="6" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="D6" s="34">
-        <v>30</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>409</v>
-      </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-    </row>
-    <row r="7" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="D7" s="34">
-        <v>100</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>398</v>
-      </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-    </row>
-    <row r="8" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>413</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="D8" s="34">
+      <c r="B23" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="D23" s="33">
         <v>19</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-    </row>
-    <row r="9" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="D9" s="34">
-        <v>19</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-    </row>
-    <row r="10" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="34" t="s">
-        <v>388</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="D10" s="34">
-        <v>200</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-    </row>
-    <row r="11" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="D11" s="34">
-        <v>19</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-    </row>
-    <row r="12" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
-        <v>391</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="D12" s="34">
-        <v>200</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-    </row>
-    <row r="13" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="D13" s="34">
-        <v>250</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>406</v>
-      </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-    </row>
-    <row r="14" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="D14" s="34">
-        <v>50</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-    </row>
-    <row r="15" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="D15" s="34">
-        <v>19</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>397</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-    </row>
-    <row r="16" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="D16" s="34">
-        <v>19</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>397</v>
-      </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-    </row>
-    <row r="17" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="D17" s="34">
-        <v>19</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-    </row>
-    <row r="18" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="D18" s="34">
-        <v>19</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-    </row>
-    <row r="19" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="D19" s="34">
-        <v>20</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-    </row>
-    <row r="20" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="D20" s="34">
-        <v>30</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="37" t="s">
-        <v>395</v>
-      </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-    </row>
-    <row r="21" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="E23" s="33"/>
+      <c r="F23" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="D21" s="34">
-        <v>19</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="37" t="s">
-        <v>420</v>
-      </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="M2:M22"/>
+    <mergeCell ref="N2:N22"/>
+    <mergeCell ref="O2:O22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F21:J21"/>
     <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5876,17 +6038,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -6320,17 +6482,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -6693,17 +6855,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -7170,17 +7332,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -7896,17 +8058,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -8696,17 +8858,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/SINERGYTECH/MAPEAMENTO_SINERGYTECH.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/SINERGYTECH/MAPEAMENTO_SINERGYTECH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\SINERGYTECH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3561C768-3542-47B0-813E-FAE23A74CE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBF7CEB-00A5-4A5E-9F3E-4A305BF6931B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="610" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="434">
   <si>
     <t>CPF</t>
   </si>
@@ -1421,6 +1421,9 @@
     'Meireles_freitas' AS BANCO,
     'SINERGYTECH' AS ORIGEM
 FROM Acionamentos_kedu WITH (NOLOCK)</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
   </si>
 </sst>
 </file>
@@ -1855,6 +1858,15 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1866,15 +1878,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2411,17 +2414,17 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -2851,17 +2854,17 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -5087,8 +5090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:J21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5174,22 +5177,22 @@
       <c r="E2" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="36" t="s">
         <v>430</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="36" t="s">
         <v>431</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="36" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5224,9 +5227,9 @@
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
       <c r="P3" s="33"/>
     </row>
     <row r="4" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5237,7 +5240,7 @@
         <v>410</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="D4" s="33">
         <v>20</v>
@@ -5258,9 +5261,9 @@
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
       <c r="P4" s="33"/>
     </row>
     <row r="5" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5271,7 +5274,7 @@
         <v>381</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="D5" s="33">
         <v>20</v>
@@ -5294,9 +5297,9 @@
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
       <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5310,7 +5313,7 @@
         <v>416</v>
       </c>
       <c r="D6" s="33">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33" t="s">
@@ -5330,9 +5333,9 @@
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
       <c r="P6" s="33"/>
     </row>
     <row r="7" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5346,7 +5349,7 @@
         <v>416</v>
       </c>
       <c r="D7" s="33">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33" t="s">
@@ -5366,9 +5369,9 @@
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
       <c r="P7" s="33"/>
     </row>
     <row r="8" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5402,9 +5405,9 @@
       </c>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
       <c r="P8" s="33"/>
     </row>
     <row r="9" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5438,9 +5441,9 @@
       </c>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
       <c r="P9" s="33"/>
     </row>
     <row r="10" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5454,7 +5457,7 @@
         <v>416</v>
       </c>
       <c r="D10" s="33">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33" t="s">
@@ -5474,9 +5477,9 @@
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
       <c r="P10" s="33"/>
     </row>
     <row r="11" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5510,9 +5513,9 @@
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
       <c r="P11" s="33"/>
     </row>
     <row r="12" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5526,7 +5529,7 @@
         <v>416</v>
       </c>
       <c r="D12" s="33">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33" t="s">
@@ -5548,9 +5551,9 @@
       <c r="L12" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
       <c r="P12" s="33"/>
     </row>
     <row r="13" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5561,10 +5564,10 @@
         <v>217</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="D13" s="33">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33" t="s">
@@ -5584,9 +5587,9 @@
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
       <c r="P13" s="33"/>
     </row>
     <row r="14" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5597,10 +5600,10 @@
         <v>218</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="D14" s="33">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33" t="s">
@@ -5620,9 +5623,9 @@
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
       <c r="P14" s="33"/>
       <c r="Q14" s="33"/>
     </row>
@@ -5657,9 +5660,9 @@
       </c>
       <c r="K15" s="33"/>
       <c r="L15" s="33"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
       <c r="P15" s="33"/>
     </row>
     <row r="16" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5693,9 +5696,9 @@
       </c>
       <c r="K16" s="33"/>
       <c r="L16" s="33"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
       <c r="P16" s="33"/>
     </row>
     <row r="17" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5719,9 +5722,9 @@
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
       <c r="L17" s="33"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
       <c r="P17" s="33"/>
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5745,9 +5748,9 @@
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
       <c r="P18" s="33"/>
     </row>
     <row r="19" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5758,10 +5761,10 @@
         <v>221</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="D19" s="33">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33" t="s">
@@ -5781,9 +5784,9 @@
       </c>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
       <c r="P19" s="33"/>
     </row>
     <row r="20" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5794,24 +5797,24 @@
         <v>424</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="D20" s="33">
         <v>20</v>
       </c>
       <c r="E20" s="33"/>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
       <c r="P20" s="33"/>
     </row>
     <row r="21" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5822,24 +5825,24 @@
         <v>426</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="D21" s="33">
         <v>20</v>
       </c>
       <c r="E21" s="33"/>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
       <c r="P21" s="33"/>
     </row>
     <row r="22" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5850,31 +5853,31 @@
         <v>409</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="D22" s="33">
         <v>30</v>
       </c>
       <c r="E22" s="33"/>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
       <c r="P22" s="33"/>
     </row>
     <row r="23" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="33" t="s">
         <v>418</v>
       </c>
       <c r="C23" s="33" t="s">
@@ -5884,13 +5887,13 @@
         <v>19</v>
       </c>
       <c r="E23" s="33"/>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6038,17 +6041,17 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -6482,17 +6485,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -6855,17 +6858,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -7332,17 +7335,17 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -8058,17 +8061,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -8858,17 +8861,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/SINERGYTECH/MAPEAMENTO_SINERGYTECH.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/SINERGYTECH/MAPEAMENTO_SINERGYTECH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\SINERGYTECH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBF7CEB-00A5-4A5E-9F3E-4A305BF6931B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BC20F5-A391-4E59-960A-88EC6D772B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="610" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="610" firstSheet="2" activeTab="2" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -1434,7 +1434,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2200,7 +2200,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -2208,7 +2208,7 @@
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
@@ -2219,67 +2219,67 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2297,7 +2297,7 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" bestFit="1" customWidth="1"/>
@@ -2316,7 +2316,7 @@
     <col min="16" max="16" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2413,7 +2413,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="16"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="I4" s="42" t="s">
         <v>362</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
     </row>
-    <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="27.6">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>139</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>112</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>146</v>
       </c>
@@ -2723,7 +2723,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="110.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -2745,7 +2745,7 @@
     <col min="18" max="16384" width="13.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2853,7 +2853,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="J4" s="42" t="s">
         <v>362</v>
       </c>
@@ -2866,7 +2866,7 @@
       <c r="Q4" s="42"/>
       <c r="R4" s="42"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>139</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="64.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>113</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
@@ -3194,7 +3194,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="7" max="7" width="31.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
@@ -3202,7 +3202,7 @@
     <col min="11" max="11" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="7:10">
       <c r="G2" s="29" t="s">
         <v>193</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="3" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="7:10">
       <c r="G3" s="1" t="s">
         <v>363</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="7:10">
       <c r="G4" s="1" t="s">
         <v>364</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:10">
       <c r="G5" s="1" t="s">
         <v>365</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:10">
       <c r="G6" s="1" t="s">
         <v>366</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:10">
       <c r="G7" s="1" t="s">
         <v>367</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="8" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:10">
       <c r="G8" s="1" t="s">
         <v>368</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:10">
       <c r="G9" s="1" t="s">
         <v>369</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="10" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:10">
       <c r="G10" s="1" t="s">
         <v>370</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="11" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="7:10">
       <c r="G11" s="1" t="s">
         <v>371</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:10">
       <c r="G12" s="1" t="s">
         <v>372</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:10">
       <c r="G13" s="1" t="s">
         <v>373</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:10">
       <c r="G14" s="1" t="s">
         <v>374</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:10">
       <c r="G15" s="1" t="s">
         <v>375</v>
       </c>
@@ -3411,7 +3411,7 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -3464,7 +3464,7 @@
     <col min="59" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>320</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39">
       <c r="B3" s="20" t="s">
         <v>128</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39">
       <c r="B6" s="7" t="s">
         <v>85</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39">
       <c r="B7" s="7" t="s">
         <v>87</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39">
       <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39">
       <c r="B14" s="9" t="s">
         <v>0</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39">
       <c r="B15" s="9" t="s">
         <v>1</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39">
       <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:33">
       <c r="B17" s="9" t="s">
         <v>3</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:33">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:33">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:33">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:33">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:33">
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:33">
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:33">
       <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:33">
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:33">
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:33">
       <c r="B27" s="1" t="s">
         <v>356</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:33">
       <c r="B28" s="1" t="s">
         <v>123</v>
       </c>
@@ -5002,62 +5002,62 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:33">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:33">
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:33">
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:33">
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:40">
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:40">
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:40">
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:40">
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:40">
       <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:40">
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:40">
       <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:40">
       <c r="B40" s="1" t="s">
         <v>146</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:40">
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="J42" s="21"/>
@@ -5090,11 +5090,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62AE222-1740-4697-9DDD-8C113A0027CC}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="70.77734375" defaultRowHeight="21.6" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -5114,7 +5114,7 @@
     <col min="16" max="16384" width="70.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="21.6" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>186</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="21.6" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>421</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="21" customHeight="1" thickBot="1">
       <c r="A3" s="33" t="s">
         <v>29</v>
       </c>
@@ -5232,7 +5232,7 @@
       <c r="O3" s="37"/>
       <c r="P3" s="33"/>
     </row>
-    <row r="4" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="21" customHeight="1" thickBot="1">
       <c r="A4" s="33" t="s">
         <v>46</v>
       </c>
@@ -5266,7 +5266,7 @@
       <c r="O4" s="37"/>
       <c r="P4" s="33"/>
     </row>
-    <row r="5" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="21" customHeight="1" thickBot="1">
       <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
@@ -5302,7 +5302,7 @@
       <c r="O5" s="37"/>
       <c r="P5" s="33"/>
     </row>
-    <row r="6" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="21" customHeight="1" thickBot="1">
       <c r="A6" s="33" t="s">
         <v>382</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>416</v>
       </c>
       <c r="D6" s="33">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33" t="s">
@@ -5338,7 +5338,7 @@
       <c r="O6" s="37"/>
       <c r="P6" s="33"/>
     </row>
-    <row r="7" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="21" customHeight="1" thickBot="1">
       <c r="A7" s="33" t="s">
         <v>383</v>
       </c>
@@ -5374,7 +5374,7 @@
       <c r="O7" s="37"/>
       <c r="P7" s="33"/>
     </row>
-    <row r="8" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="33" t="s">
         <v>215</v>
       </c>
@@ -5410,7 +5410,7 @@
       <c r="O8" s="37"/>
       <c r="P8" s="33"/>
     </row>
-    <row r="9" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="33" t="s">
         <v>385</v>
       </c>
@@ -5446,7 +5446,7 @@
       <c r="O9" s="37"/>
       <c r="P9" s="33"/>
     </row>
-    <row r="10" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="21" customHeight="1" thickBot="1">
       <c r="A10" s="33" t="s">
         <v>387</v>
       </c>
@@ -5482,7 +5482,7 @@
       <c r="O10" s="37"/>
       <c r="P10" s="33"/>
     </row>
-    <row r="11" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="21" customHeight="1" thickBot="1">
       <c r="A11" s="33" t="s">
         <v>388</v>
       </c>
@@ -5518,7 +5518,7 @@
       <c r="O11" s="37"/>
       <c r="P11" s="33"/>
     </row>
-    <row r="12" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="21" customHeight="1" thickBot="1">
       <c r="A12" s="33" t="s">
         <v>390</v>
       </c>
@@ -5556,7 +5556,7 @@
       <c r="O12" s="37"/>
       <c r="P12" s="33"/>
     </row>
-    <row r="13" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="21" customHeight="1" thickBot="1">
       <c r="A13" s="33" t="s">
         <v>43</v>
       </c>
@@ -5592,7 +5592,7 @@
       <c r="O13" s="37"/>
       <c r="P13" s="33"/>
     </row>
-    <row r="14" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="21" customHeight="1" thickBot="1">
       <c r="A14" s="33" t="s">
         <v>44</v>
       </c>
@@ -5629,7 +5629,7 @@
       <c r="P14" s="33"/>
       <c r="Q14" s="33"/>
     </row>
-    <row r="15" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="21" customHeight="1" thickBot="1">
       <c r="A15" s="33" t="s">
         <v>47</v>
       </c>
@@ -5665,7 +5665,7 @@
       <c r="O15" s="37"/>
       <c r="P15" s="33"/>
     </row>
-    <row r="16" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="21" customHeight="1" thickBot="1">
       <c r="A16" s="33" t="s">
         <v>48</v>
       </c>
@@ -5701,7 +5701,7 @@
       <c r="O16" s="37"/>
       <c r="P16" s="33"/>
     </row>
-    <row r="17" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="21" customHeight="1" thickBot="1">
       <c r="A17" s="33" t="s">
         <v>55</v>
       </c>
@@ -5727,7 +5727,7 @@
       <c r="O17" s="37"/>
       <c r="P17" s="33"/>
     </row>
-    <row r="18" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="21" customHeight="1" thickBot="1">
       <c r="A18" s="33" t="s">
         <v>56</v>
       </c>
@@ -5753,7 +5753,7 @@
       <c r="O18" s="37"/>
       <c r="P18" s="33"/>
     </row>
-    <row r="19" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="21" customHeight="1" thickBot="1">
       <c r="A19" s="33" t="s">
         <v>12</v>
       </c>
@@ -5789,7 +5789,7 @@
       <c r="O19" s="37"/>
       <c r="P19" s="33"/>
     </row>
-    <row r="20" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="21" customHeight="1" thickBot="1">
       <c r="A20" s="33" t="s">
         <v>326</v>
       </c>
@@ -5817,7 +5817,7 @@
       <c r="O20" s="37"/>
       <c r="P20" s="33"/>
     </row>
-    <row r="21" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="21" customHeight="1" thickBot="1">
       <c r="A21" s="33" t="s">
         <v>425</v>
       </c>
@@ -5845,7 +5845,7 @@
       <c r="O21" s="37"/>
       <c r="P21" s="33"/>
     </row>
-    <row r="22" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A22" s="33" t="s">
         <v>109</v>
       </c>
@@ -5873,7 +5873,7 @@
       <c r="O22" s="38"/>
       <c r="P22" s="33"/>
     </row>
-    <row r="23" spans="1:16" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="21.6" customHeight="1" thickBot="1">
       <c r="A23" s="33" t="s">
         <v>417</v>
       </c>
@@ -5918,7 +5918,7 @@
       <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -5940,7 +5940,7 @@
     <col min="18" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="I4" s="42" t="s">
         <v>362</v>
       </c>
@@ -6053,7 +6053,7 @@
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
     </row>
-    <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="27.6">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>139</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>146</v>
       </c>
@@ -6392,7 +6392,7 @@
       <selection activeCell="A5" sqref="A5:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -6414,7 +6414,7 @@
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="I3" s="42" t="s">
         <v>362</v>
       </c>
@@ -6497,7 +6497,7 @@
       <c r="P3" s="42"/>
       <c r="Q3" s="42"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="20" t="s">
         <v>186</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>118</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>119</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>120</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -6765,7 +6765,7 @@
       <selection activeCell="A5" sqref="A5:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -6787,7 +6787,7 @@
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="I3" s="42" t="s">
         <v>362</v>
       </c>
@@ -6870,7 +6870,7 @@
       <c r="P3" s="42"/>
       <c r="Q3" s="42"/>
     </row>
-    <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="27.6">
       <c r="A4" s="20" t="s">
         <v>186</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>127</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -7122,10 +7122,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5">
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5">
       <c r="E18" s="24"/>
     </row>
   </sheetData>
@@ -7147,7 +7147,7 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -7176,7 +7176,7 @@
     <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="I3" s="26"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -7334,7 +7334,7 @@
       <c r="O3" s="27"/>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="I4" s="42" t="s">
         <v>362</v>
       </c>
@@ -7347,7 +7347,7 @@
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>86</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="23.4" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>91</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
         <v>245</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
         <v>246</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
         <v>247</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
         <v>248</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>249</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>250</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>260</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>251</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>252</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>253</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>254</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>255</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>256</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>257</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>259</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>258</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -7794,7 +7794,7 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -7828,7 +7828,7 @@
     <col min="39" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38">
       <c r="A2" s="2">
         <v>44593</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38">
       <c r="I4" s="42" t="s">
         <v>362</v>
       </c>
@@ -8073,7 +8073,7 @@
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
     </row>
-    <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="27" customHeight="1">
       <c r="A5" s="20" t="s">
         <v>186</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="27" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="25.95" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -8219,7 +8219,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>356</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>123</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>17</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>146</v>
       </c>
@@ -8676,7 +8676,7 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
@@ -8706,7 +8706,7 @@
     <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25">
       <c r="I3" s="42" t="s">
         <v>362</v>
       </c>
@@ -8873,7 +8873,7 @@
       <c r="P3" s="42"/>
       <c r="Q3" s="42"/>
     </row>
-    <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="27.6">
       <c r="A4" s="20" t="s">
         <v>186</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>147</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>148</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>144</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>93</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>95</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>96</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
